--- a/OUTPUT/BOM/Gastroscopy-Tool-Sensor_BOM_Rev_0.1.0_No Variations.xlsx
+++ b/OUTPUT/BOM/Gastroscopy-Tool-Sensor_BOM_Rev_0.1.0_No Variations.xlsx
@@ -909,9 +909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1174320</xdr:colOff>
+      <xdr:colOff>1173960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,8 +924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5243760" y="126360"/>
-          <a:ext cx="3263400" cy="1386720"/>
+          <a:off x="5244480" y="126360"/>
+          <a:ext cx="3263040" cy="1386360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,21 +947,21 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="false" view="normal" topLeftCell="A7" colorId="8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="34.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="16.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.28"/>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="D8" s="25" t="n">
         <f aca="true">TODAY()</f>
-        <v>44867</v>
+        <v>44881</v>
       </c>
       <c r="E8" s="26" t="n">
         <f aca="true">NOW()</f>
-        <v>44867.4475890046</v>
+        <v>44881.4770509375</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="22"/>
@@ -1533,7 +1533,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="false" view="normal" topLeftCell="A1" colorId="8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
